--- a/Win32/Debug/_resources/database.xlsx
+++ b/Win32/Debug/_resources/database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Delphi\MCS Project\___KPsys\Win32\Debug\_resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="290">
   <si>
     <t>Description</t>
   </si>
@@ -387,242 +392,515 @@
     <t>kp156</t>
   </si>
   <si>
+    <t>Is Active in the System?</t>
+  </si>
+  <si>
+    <t>Is Appointed?</t>
+  </si>
+  <si>
+    <t>Lupon Fullname:</t>
+  </si>
+  <si>
+    <t>Full Address:</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Basic Personal Information: (Profession and Education)</t>
+  </si>
+  <si>
+    <t>Date of Appointment:</t>
+  </si>
+  <si>
+    <t>CTC Date Info.:</t>
+  </si>
+  <si>
+    <t>CTC Number:</t>
+  </si>
+  <si>
+    <t>Date of Oath of Office:</t>
+  </si>
+  <si>
+    <t>Time of Oath:</t>
+  </si>
+  <si>
+    <t>Subscribe and Sworn Date:</t>
+  </si>
+  <si>
+    <t>chkbox</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>LP10</t>
+  </si>
+  <si>
+    <t>LP11</t>
+  </si>
+  <si>
+    <t>LP12</t>
+  </si>
+  <si>
+    <t>LP13</t>
+  </si>
+  <si>
+    <t>LP14</t>
+  </si>
+  <si>
+    <t>LP15</t>
+  </si>
+  <si>
+    <t>LP16</t>
+  </si>
+  <si>
+    <t>LP17</t>
+  </si>
+  <si>
+    <t>LP18</t>
+  </si>
+  <si>
+    <t>LP19</t>
+  </si>
+  <si>
+    <t>LP20</t>
+  </si>
+  <si>
+    <t>LP21</t>
+  </si>
+  <si>
+    <t>xNature of case</t>
+  </si>
+  <si>
+    <t>xType of Complaint/Case Name</t>
+  </si>
+  <si>
+    <t>xLast Proceeding Taken:</t>
+  </si>
+  <si>
+    <t>xStatus of Compliance on the Settlement or Award:</t>
+  </si>
+  <si>
+    <t>Punong Barangay Fullname</t>
+  </si>
+  <si>
+    <t>Lupon Chairman Fullname</t>
+  </si>
+  <si>
+    <t>Lupon Secretary Fullname</t>
+  </si>
+  <si>
+    <t>sig10</t>
+  </si>
+  <si>
+    <t>sig11</t>
+  </si>
+  <si>
+    <t>sig12</t>
+  </si>
+  <si>
+    <t>sig13</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Lgu</t>
+  </si>
+  <si>
+    <t>Brgy</t>
+  </si>
+  <si>
+    <t>BrgyLogo</t>
+  </si>
+  <si>
+    <t>LguLogo</t>
+  </si>
+  <si>
+    <t>Bplogo</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>set10</t>
+  </si>
+  <si>
+    <t>set11</t>
+  </si>
+  <si>
+    <t>set12</t>
+  </si>
+  <si>
+    <t>set13</t>
+  </si>
+  <si>
+    <t>set14</t>
+  </si>
+  <si>
+    <t>set15</t>
+  </si>
+  <si>
+    <t>set16</t>
+  </si>
+  <si>
+    <t>set17</t>
+  </si>
+  <si>
+    <t>Case Title</t>
+  </si>
+  <si>
+    <t>Case Description</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email add</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>last login</t>
+  </si>
+  <si>
+    <t>date joined</t>
+  </si>
+  <si>
+    <t>isAdmin</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>Delphi</t>
+  </si>
+  <si>
+    <t>email_add</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>lgu</t>
+  </si>
+  <si>
+    <t>brgy</t>
+  </si>
+  <si>
+    <t>brgy_logo</t>
+  </si>
+  <si>
+    <t>lgu_logo</t>
+  </si>
+  <si>
+    <t>bp_logo</t>
+  </si>
+  <si>
+    <t>Barangay Secretary Fullname</t>
+  </si>
+  <si>
+    <t>case_title</t>
+  </si>
+  <si>
+    <t>case_desc</t>
+  </si>
+  <si>
+    <t>lupon_sec_fname</t>
+  </si>
+  <si>
+    <t>barangay_sec_fname</t>
+  </si>
+  <si>
+    <t>lupon_cha_fname</t>
+  </si>
+  <si>
+    <t>punong_bar_fname</t>
+  </si>
+  <si>
+    <t>lupon_fname</t>
+  </si>
+  <si>
+    <t>full_add</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>date_of_app</t>
+  </si>
+  <si>
+    <t>basic_pers_info</t>
+  </si>
+  <si>
+    <t>sub_and_sworn_date</t>
+  </si>
+  <si>
+    <t>case_num</t>
+  </si>
+  <si>
+    <t>filing_fee</t>
+  </si>
+  <si>
+    <t>date_case_fil</t>
+  </si>
+  <si>
+    <t>date_offi_rec</t>
+  </si>
+  <si>
+    <t>complaints_form</t>
+  </si>
+  <si>
+    <t>overall_remarks</t>
+  </si>
+  <si>
+    <t>mediation_date</t>
+  </si>
+  <si>
+    <t>mediation_time</t>
+  </si>
+  <si>
+    <t>summons_date</t>
+  </si>
+  <si>
+    <t>summons_time</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>nature_of_case</t>
+  </si>
+  <si>
+    <t>type_of_comp_or_case</t>
+  </si>
+  <si>
+    <t>list_of_comp</t>
+  </si>
+  <si>
+    <t>list_of_resp</t>
+  </si>
+  <si>
+    <t>main_point_of_agre</t>
+  </si>
+  <si>
+    <t>mediation_chec</t>
+  </si>
+  <si>
+    <t>conciliation_chec</t>
+  </si>
+  <si>
+    <t>notify_date</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>notice_of_exec</t>
+  </si>
+  <si>
+    <t>arbitration_award_stat</t>
+  </si>
+  <si>
+    <t>date_of_execution_of_sett</t>
+  </si>
+  <si>
+    <t>last_proceeding_take</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>repudiation</t>
+  </si>
+  <si>
+    <t>signed_repu_docs</t>
+  </si>
+  <si>
+    <t>signed_minu_of_the_meet</t>
+  </si>
+  <si>
+    <t>minutes_of_proce_repo_logs</t>
+  </si>
+  <si>
+    <t>if_repu_pls_enter_grou_of_repu_and_date</t>
+  </si>
+  <si>
+    <t>status_of_comp_on_the_sett_or_award</t>
+  </si>
+  <si>
+    <t>date_of_sett_or_award</t>
+  </si>
+  <si>
+    <t>amicable_sett_stat</t>
+  </si>
+  <si>
+    <t>motion_for_exec_date</t>
+  </si>
+  <si>
+    <t>agreement_for_arbi_date</t>
+  </si>
+  <si>
+    <t>failure_to_appe</t>
+  </si>
+  <si>
+    <t>failure_of_sett</t>
+  </si>
+  <si>
+    <t>refusal_to_appe_befo_the_pang</t>
+  </si>
+  <si>
+    <t>is_appo</t>
+  </si>
+  <si>
+    <t>ctc_date_info</t>
+  </si>
+  <si>
+    <t>date_of_oath_of_offi</t>
+  </si>
+  <si>
+    <t>time_of_oath</t>
+  </si>
+  <si>
+    <t>ctc_numb</t>
+  </si>
+  <si>
+    <t>n_o_h_appear_date</t>
+  </si>
+  <si>
+    <t>n_o_h_appear_time</t>
+  </si>
+  <si>
+    <t>n_o_h_made_this_date</t>
+  </si>
+  <si>
+    <t>n_f_c_f_p_appear_date</t>
+  </si>
+  <si>
+    <t>n_f_c_f_p_appear_time</t>
+  </si>
+  <si>
+    <t>n_f_c_f_p_made_this_date</t>
+  </si>
+  <si>
+    <t>n_t_c_p_m_pangkat_sec</t>
+  </si>
+  <si>
+    <t>n_t_c_p_m_pangkat_cha_name</t>
+  </si>
+  <si>
+    <t>n_t_c_p_m_pangkat_memb</t>
+  </si>
+  <si>
+    <t>s_appear_date</t>
+  </si>
+  <si>
+    <t>s_appear_time</t>
+  </si>
+  <si>
+    <t>s_made_this_date</t>
+  </si>
+  <si>
+    <t>s_witnesses_name</t>
+  </si>
+  <si>
+    <t>n_o_h_re_c_appear_date</t>
+  </si>
+  <si>
+    <t>n_o_h_re_c_appear_time</t>
+  </si>
+  <si>
+    <t>n_o_h_re_c_made_this_date</t>
+  </si>
+  <si>
+    <t>n_o_h_re_r_appear_date</t>
+  </si>
+  <si>
+    <t>n_o_h_re_r_appear_time</t>
+  </si>
+  <si>
+    <t>n_o_h_re_r_made_this_date</t>
+  </si>
+  <si>
+    <t>NOTICE OF HEARING (RE: MOTION FOR EXECUTION) DATE:</t>
+  </si>
+  <si>
     <t>kp157</t>
   </si>
   <si>
-    <t>Is Active in the System?</t>
-  </si>
-  <si>
-    <t>Is Appointed?</t>
-  </si>
-  <si>
-    <t>Lupon Fullname:</t>
-  </si>
-  <si>
-    <t>Full Address:</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Basic Personal Information: (Profession and Education)</t>
-  </si>
-  <si>
-    <t>Date of Appointment:</t>
-  </si>
-  <si>
-    <t>CTC Date Info.:</t>
-  </si>
-  <si>
-    <t>CTC Number:</t>
-  </si>
-  <si>
-    <t>Date of Oath of Office:</t>
-  </si>
-  <si>
-    <t>Time of Oath:</t>
-  </si>
-  <si>
-    <t>Subscribe and Sworn Date:</t>
-  </si>
-  <si>
-    <t>chkbox</t>
-  </si>
-  <si>
-    <t>blob</t>
-  </si>
-  <si>
-    <t>LP10</t>
-  </si>
-  <si>
-    <t>LP11</t>
-  </si>
-  <si>
-    <t>LP12</t>
-  </si>
-  <si>
-    <t>LP13</t>
-  </si>
-  <si>
-    <t>LP14</t>
-  </si>
-  <si>
-    <t>LP15</t>
-  </si>
-  <si>
-    <t>LP16</t>
-  </si>
-  <si>
-    <t>LP17</t>
-  </si>
-  <si>
-    <t>LP18</t>
-  </si>
-  <si>
-    <t>LP19</t>
-  </si>
-  <si>
-    <t>LP20</t>
-  </si>
-  <si>
-    <t>LP21</t>
-  </si>
-  <si>
-    <t>xNature of case</t>
-  </si>
-  <si>
-    <t>xType of Complaint/Case Name</t>
-  </si>
-  <si>
-    <t>xLast Proceeding Taken:</t>
-  </si>
-  <si>
-    <t>xStatus of Compliance on the Settlement or Award:</t>
-  </si>
-  <si>
-    <t>Punong Barangay Fullname</t>
-  </si>
-  <si>
-    <t>Lupon Chairman Fullname</t>
-  </si>
-  <si>
-    <t>Barangay Secretary Fullame</t>
-  </si>
-  <si>
-    <t>Lupon Secretary Fullname</t>
-  </si>
-  <si>
-    <t>sig10</t>
-  </si>
-  <si>
-    <t>sig11</t>
-  </si>
-  <si>
-    <t>sig12</t>
-  </si>
-  <si>
-    <t>sig13</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Lgu</t>
-  </si>
-  <si>
-    <t>Brgy</t>
-  </si>
-  <si>
-    <t>BrgyLogo</t>
-  </si>
-  <si>
-    <t>LguLogo</t>
-  </si>
-  <si>
-    <t>Bplogo</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>set10</t>
-  </si>
-  <si>
-    <t>set11</t>
-  </si>
-  <si>
-    <t>set12</t>
-  </si>
-  <si>
-    <t>set13</t>
-  </si>
-  <si>
-    <t>set14</t>
-  </si>
-  <si>
-    <t>set15</t>
-  </si>
-  <si>
-    <t>set16</t>
-  </si>
-  <si>
-    <t>set17</t>
-  </si>
-  <si>
-    <t>Case Title</t>
-  </si>
-  <si>
-    <t>Case Description</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email add</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>last login</t>
-  </si>
-  <si>
-    <t>date joined</t>
-  </si>
-  <si>
-    <t>isAdmin</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>user11</t>
-  </si>
-  <si>
-    <t>user12</t>
-  </si>
-  <si>
-    <t>user13</t>
-  </si>
-  <si>
-    <t>user14</t>
-  </si>
-  <si>
-    <t>user15</t>
-  </si>
-  <si>
-    <t>user16</t>
-  </si>
-  <si>
-    <t>user17</t>
-  </si>
-  <si>
-    <t>user18</t>
+    <t>notice_of_hear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +924,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -691,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -700,6 +985,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,6 +995,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -757,7 +1046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +1081,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1012,10 +1301,11 @@
     <col min="1" max="1" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1315,11 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1036,8 +1329,11 @@
       <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1047,8 +1343,11 @@
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1357,11 @@
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1371,11 @@
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1080,8 +1385,11 @@
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1399,11 @@
       <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1413,11 @@
       <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1427,11 @@
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1441,11 @@
       <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1455,11 @@
       <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1146,8 +1469,11 @@
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1157,8 +1483,11 @@
       <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1168,8 +1497,11 @@
       <c r="C14" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1179,8 +1511,11 @@
       <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1190,8 +1525,11 @@
       <c r="C16" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1201,8 +1539,11 @@
       <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1212,8 +1553,11 @@
       <c r="C18" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1567,11 @@
       <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1234,15 +1581,18 @@
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1252,8 +1602,11 @@
       <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1263,8 +1616,11 @@
       <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1274,15 +1630,18 @@
       <c r="C24" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1292,8 +1651,11 @@
       <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1303,8 +1665,11 @@
       <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1314,15 +1679,18 @@
       <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1332,8 +1700,11 @@
       <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1343,8 +1714,11 @@
       <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1354,15 +1728,18 @@
       <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1372,8 +1749,11 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -1383,8 +1763,11 @@
       <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
@@ -1394,8 +1777,11 @@
       <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1405,15 +1791,18 @@
       <c r="C37" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1423,8 +1812,11 @@
       <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1434,8 +1826,11 @@
       <c r="C40" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1445,15 +1840,18 @@
       <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -1463,8 +1861,11 @@
       <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1474,8 +1875,11 @@
       <c r="C44" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
@@ -1485,8 +1889,11 @@
       <c r="C45" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -1496,8 +1903,11 @@
       <c r="C46" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -1507,15 +1917,18 @@
       <c r="C47" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
@@ -1525,8 +1938,11 @@
       <c r="C49" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>38</v>
       </c>
@@ -1536,8 +1952,11 @@
       <c r="C50" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
@@ -1547,8 +1966,11 @@
       <c r="C51" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
@@ -1558,8 +1980,11 @@
       <c r="C52" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
@@ -1569,10 +1994,13 @@
       <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>39</v>
@@ -1580,8 +2008,11 @@
       <c r="C54" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>43</v>
       </c>
@@ -1591,8 +2022,11 @@
       <c r="C55" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
@@ -1602,8 +2036,11 @@
       <c r="C56" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
@@ -1613,8 +2050,11 @@
       <c r="C57" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
@@ -1624,8 +2064,11 @@
       <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
@@ -1635,8 +2078,11 @@
       <c r="C59" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
@@ -1646,8 +2092,11 @@
       <c r="C60" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
@@ -1657,8 +2106,11 @@
       <c r="C61" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -1668,8 +2120,11 @@
       <c r="C62" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -1679,8 +2134,11 @@
       <c r="C63" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>54</v>
       </c>
@@ -1690,8 +2148,11 @@
       <c r="C64" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1701,8 +2162,11 @@
       <c r="C65" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -1710,26 +2174,29 @@
         <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +2204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>59</v>
       </c>
@@ -1745,7 +2212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +2220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>61</v>
       </c>
@@ -1761,17 +2228,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>50</v>
@@ -1785,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,9 +2263,10 @@
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,137 +2276,176 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
+      <c r="D13" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1949,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +2469,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,27 +2479,36 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>178</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
+      <c r="D3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2002,19 +2518,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,49 +2542,64 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
+      <c r="D5" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2076,19 +2609,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2098,93 +2632,120 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>161</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>162</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>164</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>165</v>
       </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
+      <c r="D9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2194,19 +2755,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2216,107 +2779,138 @@
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>181</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>184</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
+      <c r="D10" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Win32/Debug/_resources/database.xlsx
+++ b/Win32/Debug/_resources/database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="289">
   <si>
     <t>Description</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>MINUTES of PROCEEDINGS REPORT LOGs</t>
-  </si>
-  <si>
-    <t>num</t>
   </si>
   <si>
     <t>cur</t>
@@ -1292,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,10 +1310,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,10 +1324,10 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,10 +1338,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,13 +1349,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,13 +1363,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,10 +1380,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,10 +1394,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,10 +1408,10 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,10 +1422,10 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,10 +1436,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,10 +1450,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,10 +1464,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,10 +1478,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,10 +1492,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,13 +1503,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,10 +1520,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,10 +1534,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,10 +1548,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,10 +1562,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1576,13 +1573,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1600,10 +1597,10 @@
         <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1614,10 +1611,10 @@
         <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,10 +1625,10 @@
         <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,10 +1646,10 @@
         <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,10 +1660,10 @@
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,10 +1674,10 @@
         <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1712,10 +1709,10 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1726,10 +1723,10 @@
         <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,10 +1744,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1758,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1786,10 @@
         <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,10 +1807,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,10 +1821,10 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,10 +1835,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,10 +1856,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,10 +1870,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,10 +1884,10 @@
         <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1898,10 @@
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,10 +1912,10 @@
         <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,10 +1933,10 @@
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,10 +1947,10 @@
         <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1964,10 +1961,10 @@
         <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1978,10 +1975,10 @@
         <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1992,24 +1989,24 @@
         <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,10 +2017,10 @@
         <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2034,10 +2031,10 @@
         <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2048,10 +2045,10 @@
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2062,10 +2059,10 @@
         <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2076,10 +2073,10 @@
         <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2090,10 +2087,10 @@
         <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,10 +2101,10 @@
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2118,10 +2115,10 @@
         <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2132,10 +2129,10 @@
         <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,43 +2143,43 @@
         <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>50</v>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>50</v>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>39</v>
@@ -2206,7 +2203,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>44</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>39</v>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>44</v>
@@ -2230,7 +2227,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>50</v>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>50</v>
@@ -2274,178 +2271,178 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2477,38 +2474,38 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2540,66 +2537,66 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2630,122 +2627,122 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2777,136 +2774,136 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
